--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,11 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="一览" sheetId="3" r:id="rId3"/>
+    <sheet name="1.number" sheetId="4" r:id="rId4"/>
+    <sheet name="2testShouldWait" sheetId="5" r:id="rId5"/>
+    <sheet name="3TestRunNextOnFailed " sheetId="6" r:id="rId6"/>
+    <sheet name="chat" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>TaskDispatcherTable</t>
   </si>
@@ -103,6 +109,96 @@
   </si>
   <si>
     <t>PrimitiveSchedulerTask</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>测试shouldWait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试runNextOnFailed </t>
+  </si>
+  <si>
+    <t>1 number</t>
+  </si>
+  <si>
+    <t>1.按顺序创建任务</t>
+  </si>
+  <si>
+    <t>2.按顺序执行任务</t>
+  </si>
+  <si>
+    <t>SM进程</t>
+  </si>
+  <si>
+    <t>内存文件更新</t>
+  </si>
+  <si>
+    <t>发送信号{1}</t>
+  </si>
+  <si>
+    <t>释放Mutext</t>
+  </si>
+  <si>
+    <t>条件：获取Mutext所有权</t>
+  </si>
+  <si>
+    <t>创建信号器Mutext</t>
+  </si>
+  <si>
+    <t>launcher</t>
+  </si>
+  <si>
+    <t>1. 等待信号到达（Mutex.WaitOne）</t>
+  </si>
+  <si>
+    <t>接收{1}</t>
+  </si>
+  <si>
+    <t>从内存文件获取内容</t>
+  </si>
+  <si>
+    <t>释放内存文件</t>
+  </si>
+  <si>
+    <t>将获取的内容更新相关字段</t>
+  </si>
+  <si>
+    <t>重新启动launcher</t>
+  </si>
+  <si>
+    <t>（Mutex.WaitOne）</t>
+  </si>
+  <si>
+    <t>初期化</t>
+  </si>
+  <si>
+    <t>创建非持久的MemoryMappedFile</t>
+  </si>
+  <si>
+    <t>课题</t>
+  </si>
+  <si>
+    <t>1.谁创建Mutex？</t>
+  </si>
+  <si>
+    <t>2. lancher去创建，SW进程获取，什么时间节点lancher 启动waitOne去等待？</t>
+  </si>
+  <si>
+    <t>3. 如果SW创建，如何通知lancher 去执行waitOne等待？通过轮询去执行waitOne等待</t>
+  </si>
+  <si>
+    <t>lancher创建内存文件M1</t>
+  </si>
+  <si>
+    <t>在创建一个mutx1</t>
+  </si>
+  <si>
+    <t>launcher 100ms轮询1次 查内容，如果m1 有内容获取mutx1</t>
+  </si>
+  <si>
+    <t>m1的内容是SW 创建的M2 和mutx2</t>
   </si>
 </sst>
 </file>
@@ -718,9 +814,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1052,6 +1151,2215 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="373380"/>
+          <a:ext cx="9173845" cy="2720975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="utf-8" ?&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;shopRow /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="A" number="1" shouldWait="false" runNextOnFailed ="false" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="B" number="2" shouldWait="false" runNextOnFailed ="false" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="C" number="3" shouldWait="false" runNextOnFailed ="true" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="D" number="4" shouldWait="false" runNextOnFailed ="false" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="E" number="5" shouldWait="true" runNextOnFailed ="true" localPath="Mock.exe" args="-throwError" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="F" number="6" shouldWait="true" runNextOnFailed ="false" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="G" number="7" shouldWait="false" runNextOnFailed ="false" localPath="Mock.exe" args="-throwError" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="H" number="8" shouldWait="true" runNextOnFailed ="false" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;/tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;/root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangles 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="1089660"/>
+          <a:ext cx="220980" cy="1569720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="396240"/>
+          <a:ext cx="9974580" cy="5951855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="utf-8" ?&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;shopRow /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="A" number="1" shouldWait="false" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="B" number="2" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="C" number="3" shouldWait="false" runNextOnFailed ="true" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="D" number="4" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="E" number="5" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" runNextOnFailed ="true" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="F" number="6" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="G" number="7" shouldWait="false" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    &lt;task name="H" number="8" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    &lt;task name="G" number="7" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    &lt;task name="H" number="8" shouldWait="true" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>   &lt;task name="G" number="7" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>   &lt;task name="H" number="8" shouldWait="true" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  &lt;task name="H" number="8" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>   &lt;task name="G" number="7" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>   &lt;task name="H" number="8" shouldWait="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" runNextOnFailed ="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>" localPath="Mock.exe" args="" /&gt;    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;/tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;/root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangles 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="1165860"/>
+          <a:ext cx="2536190" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangles 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2477135" y="1737360"/>
+          <a:ext cx="2529205" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangles 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="2293620"/>
+          <a:ext cx="2522220" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128905</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangles 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499360" y="2865120"/>
+          <a:ext cx="2506345" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangles 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2461260" y="3375660"/>
+          <a:ext cx="2560320" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="365760"/>
+          <a:ext cx="9974580" cy="2074545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="utf-8" ?&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;shopRow /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>   &lt;task name="A" number="1" shouldWait="false" runNextOnFailed ="false" localPath="Mock.exe" args="" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    &lt;task name="B" number="2" shouldWait="false" runNextOnFailed ="false" localPath="Mock.exe" args="-throwError" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    &lt;task name="C" number="3" shouldWait="false" runNextOnFailed ="false" localPath="Mock.exe" args="-throwError" /&gt;   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;/tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;/root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1478280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2353310</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangles 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2506980" y="1325880"/>
+          <a:ext cx="2536190" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3108960"/>
+          <a:ext cx="9974580" cy="1876425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="utf-8" ?&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;shopRow /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    &lt;task name="D" number="4" shouldWait="false" runNextOnFailed ="true" localPath="Mock.exe" args="-throwError" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>      &lt;task name="E" number="5" shouldWait="false" runNextOnFailed ="true" localPath="Mock.exe" args="-throwError" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>     &lt;task name="F" number="6" shouldWait="false" runNextOnFailed ="truee" localPath="Mock.exe" args="-throwError" /&gt;    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;/tasks&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;/root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2415540</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangles 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537460" y="3901440"/>
+          <a:ext cx="2567940" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339340" y="647700"/>
+          <a:ext cx="243840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270760" y="1760220"/>
+          <a:ext cx="243840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3108960" y="1752600"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5128260" y="1744980"/>
+          <a:ext cx="480060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6576060" y="1729740"/>
+          <a:ext cx="815340" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="1767840"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3474720" y="683895"/>
+          <a:ext cx="243840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1303,7 +3611,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr lang="en-US" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
@@ -1405,65 +3746,65 @@
   <sheetPr/>
   <dimension ref="Q2:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BF16" sqref="BF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77777777777778" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="54" width="2.77777777777778" style="1" customWidth="1"/>
-    <col min="68" max="16384" width="2.77777777777778" style="1" customWidth="1"/>
+    <col min="1" max="54" width="2.77777777777778" style="2" customWidth="1"/>
+    <col min="68" max="16384" width="2.77777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" spans="17:38">
-      <c r="Q2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" spans="17:38">
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="19:38">
-      <c r="S3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="19:38">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="21:40">
-      <c r="U4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="21:40">
+      <c r="U4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AN4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="38:38">
-      <c r="AL6" s="1" t="s">
+      <c r="AL6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="38:38">
-      <c r="AL7" s="1" t="s">
+      <c r="AL7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1472,4 +3813,281 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="4.33333333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="2:3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B22:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="6.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="5.55555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>